--- a/src/main/resources/Test_data.xlsx
+++ b/src/main/resources/Test_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\githi\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A461022-9B50-462F-9144-E306D40FCEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9577618-924B-4B80-A7B0-42D07DB7B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="home" sheetId="2" r:id="rId2"/>
+    <sheet name="Recoveremail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -34,21 +34,21 @@
     <t>HomePageTitle</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>These credentials do not match our records.</t>
   </si>
   <si>
     <t>Aju Mathew</t>
   </si>
   <si>
-    <t>valid username</t>
-  </si>
-  <si>
-    <t>valid password</t>
-  </si>
-  <si>
     <t>usergab</t>
   </si>
   <si>
@@ -56,16 +56,36 @@
   </si>
   <si>
     <t>123g</t>
+  </si>
+  <si>
+    <t>recover email id</t>
+  </si>
+  <si>
+    <t>ann76@gmail.com</t>
+  </si>
+  <si>
+    <t>reset error msg</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,13 +108,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,10 +409,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -400,16 +423,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -427,14 +450,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29317059-E41C-4D32-86BD-92A4BF87CB89}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4EA08DA6-A80F-4AD0-AAEB-E901EB5D1CFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Test_data.xlsx
+++ b/src/main/resources/Test_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\githi\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9577618-924B-4B80-A7B0-42D07DB7B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799A10F-6733-4443-BF99-4CE0A561C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Recoveremail" sheetId="2" r:id="rId2"/>
+    <sheet name="homepage" sheetId="3" r:id="rId2"/>
+    <sheet name="usermanagement" sheetId="4" r:id="rId3"/>
+    <sheet name="Recoveremail" sheetId="2" r:id="rId4"/>
+    <sheet name="userpage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -68,6 +71,33 @@
   </si>
   <si>
     <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>home page title</t>
+  </si>
+  <si>
+    <t>Home - Llolll</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Users - Llolll</t>
+  </si>
+  <si>
+    <t>02/24/2022</t>
   </si>
 </sst>
 </file>
@@ -449,10 +479,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EBB4D4-AFF4-435B-B005-90212D3F0AAF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C00B83-3791-475F-8D92-35F528993D86}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29317059-E41C-4D32-86BD-92A4BF87CB89}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +567,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDC451-0A27-4951-8463-B639811EC366}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/Test_data.xlsx
+++ b/src/main/resources/Test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\githi\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799A10F-6733-4443-BF99-4CE0A561C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70EC31-2C42-4F51-9F3D-398616E69AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="usermanagement" sheetId="4" r:id="rId3"/>
     <sheet name="Recoveremail" sheetId="2" r:id="rId4"/>
     <sheet name="userpage" sheetId="5" r:id="rId5"/>
+    <sheet name="adduserpage" sheetId="6" r:id="rId6"/>
+    <sheet name="newusers" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -98,13 +100,100 @@
   </si>
   <si>
     <t>02/24/2022</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>Githi</t>
+  </si>
+  <si>
+    <t>invalid user name</t>
+  </si>
+  <si>
+    <t>invalid msg</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>gigi</t>
+  </si>
+  <si>
+    <t>Prefix:</t>
+  </si>
+  <si>
+    <t>First Name:*</t>
+  </si>
+  <si>
+    <t>Last Name:</t>
+  </si>
+  <si>
+    <t>ADDUSEPAGE_TITLE</t>
+  </si>
+  <si>
+    <t>Add user - Llolll</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>jerinjohn</t>
+  </si>
+  <si>
+    <t>jerinjohn123</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>leya</t>
+  </si>
+  <si>
+    <t>anoopjohn</t>
+  </si>
+  <si>
+    <t>leya123</t>
+  </si>
+  <si>
+    <t>anoop123</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>Rithu@12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>bonyjohn20222</t>
+  </si>
+  <si>
+    <t>bonyjohn1234</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Aiden Babu</t>
+  </si>
+  <si>
+    <t>aiden24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +208,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +251,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,6 +586,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EBB4D4-AFF4-435B-B005-90212D3F0AAF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +635,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,22 +692,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDC451-0A27-4951-8463-B639811EC366}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB84DE4-EAAB-4D3E-A009-48EBAEE88F4E}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="1"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{B8736A1C-568C-40A9-91A4-FF40C02E6E8E}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{C322A557-5F0A-492C-86F1-E3E25F10D42E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B5039C-F503-42D8-AFF0-07FBA675C9E4}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Test_data.xlsx
+++ b/src/main/resources/Test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\githi\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70EC31-2C42-4F51-9F3D-398616E69AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761F3C2-C5AA-42A8-828B-1FD427FC3890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Recoveremail" sheetId="2" r:id="rId4"/>
     <sheet name="userpage" sheetId="5" r:id="rId5"/>
     <sheet name="adduserpage" sheetId="6" r:id="rId6"/>
-    <sheet name="newusers" sheetId="7" r:id="rId7"/>
+    <sheet name="UpdateUsers" sheetId="8" r:id="rId7"/>
+    <sheet name="newusers" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -187,6 +188,21 @@
   </si>
   <si>
     <t>aiden24</t>
+  </si>
+  <si>
+    <t>Edit user - Llolll</t>
+  </si>
+  <si>
+    <t>Aidenbabu</t>
+  </si>
+  <si>
+    <t>aiden20222@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -737,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB84DE4-EAAB-4D3E-A009-48EBAEE88F4E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -830,6 +846,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CBD077-38CE-41B5-948C-0C5DA690FCEC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{06D54EE7-1AB4-4B58-A0FA-D3B3EB3BD9D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B5039C-F503-42D8-AFF0-07FBA675C9E4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
